--- a/TaskProject.xlsx
+++ b/TaskProject.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -197,10 +197,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -245,6 +259,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -353,7 +373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,7 +408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +954,7 @@
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="3">
@@ -953,7 +973,7 @@
       <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="3">
@@ -1170,8 +1190,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/TaskProject.xlsx
+++ b/TaskProject.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -373,7 +373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,7 +408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TaskProject.xlsx
+++ b/TaskProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>Projet</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Demonstration - Intégration avec GitHub</t>
+  </si>
+  <si>
+    <t>Créer des PDF avec ItextSharp</t>
+  </si>
+  <si>
+    <t>Import et Export avec FastExcel</t>
   </si>
 </sst>
 </file>
@@ -312,8 +318,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau_Tâches" displayName="Tableau_Tâches" ref="A1:G28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau_Tâches" displayName="Tableau_Tâches" ref="A1:G30" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G30"/>
   <sortState ref="A2:G28">
     <sortCondition ref="D1:D28"/>
   </sortState>
@@ -617,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,6 +1194,26 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
